--- a/busca.xlsx
+++ b/busca.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Web-scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1529AD3A-5181-4879-A4A0-BA95BC28470C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC9E802-C885-4368-ABB8-F39C834AD26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10710" yWindow="0" windowWidth="25935" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,9 +64,6 @@
     <t>ui24, ui24r</t>
   </si>
   <si>
-    <t>Yamaha 305, 305p</t>
-  </si>
-  <si>
     <t>sr315a, sr315 A, sr315</t>
   </si>
   <si>
@@ -77,6 +74,9 @@
   </si>
   <si>
     <t>ELX200-12, ELX200 12</t>
+  </si>
+  <si>
+    <t>305p</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +487,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -496,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>10</v>

--- a/busca.xlsx
+++ b/busca.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Web-scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC9E802-C885-4368-ABB8-F39C834AD26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F3AB20-69D9-4E66-9C14-0B81F60FEEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10710" yWindow="0" windowWidth="25935" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>estado</t>
   </si>
@@ -77,13 +77,16 @@
   </si>
   <si>
     <t>305p</t>
+  </si>
+  <si>
+    <t>tuliovfarias@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +98,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,17 +140,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -443,7 +457,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,6 +468,7 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -501,8 +516,8 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>1</v>
+      <c r="I2" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -521,8 +536,8 @@
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>1</v>
+      <c r="I3" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -541,8 +556,8 @@
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>1</v>
+      <c r="I4" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -561,8 +576,8 @@
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>1</v>
+      <c r="I5" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -581,8 +596,8 @@
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>1</v>
+      <c r="I6" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -601,8 +616,8 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>1</v>
+      <c r="I7" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -621,12 +636,16 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>1</v>
+      <c r="I8" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{844B2FC3-1248-4FE2-A294-01D0D022B68A}"/>
+    <hyperlink ref="I3:I8" r:id="rId2" display="tuliovfarias@gmail.com" xr:uid="{EB0A9008-4DB4-4DF4-91CD-01685E6E883B}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/busca.xlsx
+++ b/busca.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Web-scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F3AB20-69D9-4E66-9C14-0B81F60FEEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD76022-2685-400C-81F1-4760A1EE9233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10710" yWindow="0" windowWidth="25935" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>estado</t>
   </si>
@@ -52,9 +52,6 @@
     <t>preco_max</t>
   </si>
   <si>
-    <t>dias</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -77,6 +74,15 @@
   </si>
   <si>
     <t>305p</t>
+  </si>
+  <si>
+    <t>preco_max bu</t>
+  </si>
+  <si>
+    <t>intervalo</t>
+  </si>
+  <si>
+    <t>8h</t>
   </si>
   <si>
     <t>tuliovfarias@gmail.com</t>
@@ -86,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +109,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -144,13 +158,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -454,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,9 +484,10 @@
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -494,158 +510,165 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1600</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>9000</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>3500</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>3500</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>3500</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3500</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D8">
         <v>10</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8">
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8">
         <v>6000</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>16</v>
-      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H10" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{844B2FC3-1248-4FE2-A294-01D0D022B68A}"/>
-    <hyperlink ref="I3:I8" r:id="rId2" display="tuliovfarias@gmail.com" xr:uid="{EB0A9008-4DB4-4DF4-91CD-01685E6E883B}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{32EFFF0B-6FB1-4751-B765-4DEAFEE49783}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{58FECB2D-39E4-4FFE-94CA-7A7795D251E4}"/>
+    <hyperlink ref="I4:I8" r:id="rId3" display="tuliovfarias@gmail.com" xr:uid="{E0E0B873-22F4-4A9F-9821-7A7FE5FF8D8E}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
--- a/busca.xlsx
+++ b/busca.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Web-scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD76022-2685-400C-81F1-4760A1EE9233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315DC1CE-244E-484A-BDE0-23B2AD00D679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10710" yWindow="0" windowWidth="25935" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -472,7 +472,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +483,6 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -664,9 +663,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{32EFFF0B-6FB1-4751-B765-4DEAFEE49783}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{58FECB2D-39E4-4FFE-94CA-7A7795D251E4}"/>
-    <hyperlink ref="I4:I8" r:id="rId3" display="tuliovfarias@gmail.com" xr:uid="{E0E0B873-22F4-4A9F-9821-7A7FE5FF8D8E}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{D01F376F-F2E7-461D-8434-C1F5E490F904}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{CEC1CC7D-10DC-4BED-984D-3D528C6A48AA}"/>
+    <hyperlink ref="I4:I8" r:id="rId3" display="tuliovfarias@gmail.com" xr:uid="{63716191-E705-4190-BABF-A2CA86AD8788}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>

--- a/busca.xlsx
+++ b/busca.xlsx
@@ -1,35 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Web-scraping\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315DC1CE-244E-484A-BDE0-23B2AD00D679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="10710" yWindow="0" windowWidth="25935" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Filtros busca" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Filtros busca" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+  <si>
+    <t>busca</t>
+  </si>
   <si>
     <t>estado</t>
   </si>
@@ -37,9 +22,6 @@
     <t>cidade</t>
   </si>
   <si>
-    <t>busca</t>
-  </si>
-  <si>
     <t>max_paginas</t>
   </si>
   <si>
@@ -52,74 +34,74 @@
     <t>preco_max</t>
   </si>
   <si>
+    <t>intervalo</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
+    <t>preco_max bu</t>
+  </si>
+  <si>
+    <t>sr315a, sr315 A, sr315</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>tuliovfarias@gmail.com</t>
+  </si>
+  <si>
+    <t>305p</t>
+  </si>
+  <si>
     <t>dbr12, dbr15</t>
   </si>
   <si>
+    <t>ZLX12 ,ZLX-12, ZLX 12</t>
+  </si>
+  <si>
+    <t>ZLX15, ZLX-15, ZLX 15</t>
+  </si>
+  <si>
+    <t>ELX200-12, ELX200 12</t>
+  </si>
+  <si>
     <t>ui24, ui24r</t>
   </si>
   <si>
-    <t>sr315a, sr315 A, sr315</t>
-  </si>
-  <si>
-    <t>ZLX12 ,ZLX-12, ZLX 12</t>
-  </si>
-  <si>
-    <t>ZLX15, ZLX-15, ZLX 15</t>
-  </si>
-  <si>
-    <t>ELX200-12, ELX200 12</t>
-  </si>
-  <si>
-    <t>305p</t>
-  </si>
-  <si>
-    <t>preco_max bu</t>
-  </si>
-  <si>
-    <t>intervalo</t>
-  </si>
-  <si>
-    <t>8h</t>
-  </si>
-  <si>
-    <t>tuliovfarias@gmail.com</t>
+    <t>biqu B1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="11.0"/>
+      <color/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="11.0"/>
+      <color/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="11.0"/>
+      <color/>
+    </font>
+    <font/>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,72 +109,63 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -348,7 +321,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln cap="flat" cmpd="sng" w="9525" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -357,13 +330,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln cap="flat" cmpd="sng" w="25400" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln cap="flat" cmpd="sng" w="38100" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -373,7 +346,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" rotWithShape="0" dir="5400000" dist="20000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -382,7 +355,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" rotWithShape="0" dir="5400000" dist="23000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -391,7 +364,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" rotWithShape="0" dir="5400000" dist="23000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -401,12 +374,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -437,7 +410,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -456,7 +429,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -468,33 +441,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="57.29"/>
+    <col customWidth="1" min="2" max="2" width="8.71"/>
+    <col customWidth="1" min="3" max="3" width="6.86"/>
+    <col customWidth="1" min="4" max="4" width="12.43"/>
+    <col customWidth="1" min="5" max="5" width="12.0"/>
+    <col customWidth="1" min="6" max="6" width="11.86"/>
+    <col customWidth="1" min="7" max="7" width="10.71"/>
+    <col customWidth="1" min="8" max="10" width="8.71"/>
+    <col customWidth="1" min="11" max="11" width="13.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -509,165 +484,263 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <v>1600.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>10.0</v>
+      </c>
+      <c r="F3">
+        <v>1.0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <v>9000.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>10.0</v>
+      </c>
+      <c r="F4">
+        <v>1.0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>3500.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>10.0</v>
+      </c>
+      <c r="F5">
+        <v>1.0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>3500.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>10.0</v>
+      </c>
+      <c r="F6">
+        <v>1.0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <v>3500.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="D7">
+        <v>10.0</v>
+      </c>
+      <c r="F7">
+        <v>1.0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <v>3500.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K2">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="D8">
+        <v>10.0</v>
+      </c>
+      <c r="F8">
+        <v>1.0</v>
+      </c>
+      <c r="H8" t="s">
         <v>11</v>
       </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="K8">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H10" s="4"/>
-    </row>
+        <v>6000.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="H10" s="5"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{D01F376F-F2E7-461D-8434-C1F5E490F904}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{CEC1CC7D-10DC-4BED-984D-3D528C6A48AA}"/>
-    <hyperlink ref="I4:I8" r:id="rId3" display="tuliovfarias@gmail.com" xr:uid="{63716191-E705-4190-BABF-A2CA86AD8788}"/>
+    <hyperlink r:id="rId1" ref="I2"/>
+    <hyperlink r:id="rId2" ref="I3"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <printOptions/>
+  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/busca.xlsx
+++ b/busca.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>busca</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>sr315a, sr315 A, sr315</t>
+  </si>
+  <si>
+    <t>bh</t>
   </si>
   <si>
     <t>8h</t>
@@ -80,7 +83,7 @@
   <fonts count="6">
     <font>
       <sz val="11.0"/>
-      <color/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -90,18 +93,16 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <color/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color/>
     </font>
     <font/>
     <font>
       <u/>
       <sz val="11.0"/>
-      <color/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -140,11 +141,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -497,6 +499,9 @@
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D2">
         <v>10.0</v>
       </c>
@@ -504,10 +509,10 @@
         <v>1.0</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="K2">
         <v>1600.0</v>
@@ -515,8 +520,9 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C3" s="3"/>
       <c r="D3">
         <v>10.0</v>
       </c>
@@ -524,10 +530,10 @@
         <v>1.0</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="K3">
         <v>9000.0</v>
@@ -535,7 +541,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D4">
         <v>10.0</v>
@@ -544,10 +553,10 @@
         <v>1.0</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="K4">
         <v>3500.0</v>
@@ -555,7 +564,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D5">
         <v>10.0</v>
@@ -564,10 +576,10 @@
         <v>1.0</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="K5">
         <v>3500.0</v>
@@ -575,7 +587,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D6">
         <v>10.0</v>
@@ -584,10 +599,10 @@
         <v>1.0</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="K6">
         <v>3500.0</v>
@@ -595,7 +610,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D7">
         <v>10.0</v>
@@ -604,10 +622,10 @@
         <v>1.0</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="K7">
         <v>3500.0</v>
@@ -615,7 +633,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D8">
         <v>10.0</v>
@@ -624,30 +645,33 @@
         <v>1.0</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="K8">
         <v>6000.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="A9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="6">
         <v>10.0</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="6">
         <v>1.0</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="H9" s="6" t="s">
         <v>12</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10">

--- a/busca.xlsx
+++ b/busca.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Web-scraping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4395C1EF-1EDE-48AC-B4DC-13AFEB5C50E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="10710" yWindow="0" windowWidth="25935" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Filtros busca" sheetId="1" r:id="rId4"/>
+    <sheet name="Filtros busca" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -79,30 +88,49 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,11 +138,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -128,46 +162,50 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -323,7 +361,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln cap="flat" cmpd="sng" w="9525" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -332,13 +370,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="25400" algn="ctr">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="38100" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -348,7 +386,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" rotWithShape="0" dir="5400000" dist="20000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -357,7 +395,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" rotWithShape="0" dir="5400000" dist="23000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -366,7 +404,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" rotWithShape="0" dir="5400000" dist="23000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -376,12 +414,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -412,7 +450,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -431,7 +469,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -443,27 +481,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="57.29"/>
-    <col customWidth="1" min="2" max="2" width="8.71"/>
-    <col customWidth="1" min="3" max="3" width="6.86"/>
-    <col customWidth="1" min="4" max="4" width="12.43"/>
-    <col customWidth="1" min="5" max="5" width="12.0"/>
-    <col customWidth="1" min="6" max="6" width="11.86"/>
-    <col customWidth="1" min="7" max="7" width="10.71"/>
-    <col customWidth="1" min="8" max="10" width="8.71"/>
-    <col customWidth="1" min="11" max="11" width="13.57"/>
+    <col min="1" max="1" width="57.25" customWidth="1"/>
+    <col min="2" max="2" width="8.75" customWidth="1"/>
+    <col min="3" max="3" width="6.875" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="8.75" customWidth="1"/>
+    <col min="9" max="9" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.75" customWidth="1"/>
+    <col min="11" max="11" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,7 +535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -503,43 +543,43 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>1.0</v>
-      </c>
-      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K2">
-        <v>1600.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>1.0</v>
-      </c>
-      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K3">
-        <v>9000.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -547,22 +587,22 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>1.0</v>
-      </c>
-      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K4">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -570,10 +610,10 @@
         <v>11</v>
       </c>
       <c r="D5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -582,10 +622,10 @@
         <v>13</v>
       </c>
       <c r="K5">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -593,10 +633,10 @@
         <v>11</v>
       </c>
       <c r="D6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -605,10 +645,10 @@
         <v>13</v>
       </c>
       <c r="K6">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -616,10 +656,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -628,10 +668,10 @@
         <v>13</v>
       </c>
       <c r="K7">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -639,10 +679,10 @@
         <v>11</v>
       </c>
       <c r="D8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -651,10 +691,10 @@
         <v>13</v>
       </c>
       <c r="K8">
-        <v>6000.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
@@ -662,10 +702,10 @@
         <v>11</v>
       </c>
       <c r="D9" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F9" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>12</v>
@@ -674,97 +714,98 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="H10" s="5"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G16" s="7"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="I2"/>
-    <hyperlink r:id="rId2" ref="I3"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/busca.xlsx
+++ b/busca.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Web-scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4395C1EF-1EDE-48AC-B4DC-13AFEB5C50E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB839EA-8409-45A4-AC66-376672D94D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10710" yWindow="0" windowWidth="25935" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
-  <si>
-    <t>busca</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>estado</t>
   </si>
@@ -83,13 +80,49 @@
   </si>
   <si>
     <t>biqu B1</t>
+  </si>
+  <si>
+    <t>produto</t>
+  </si>
+  <si>
+    <t>ignorar</t>
+  </si>
+  <si>
+    <t>filtros</t>
+  </si>
+  <si>
+    <t>Staner sr315a</t>
+  </si>
+  <si>
+    <t>Yamaha dbr12/dbr15</t>
+  </si>
+  <si>
+    <t>JBL 305p</t>
+  </si>
+  <si>
+    <t>EletroVoice ZLX12</t>
+  </si>
+  <si>
+    <t>EletroVoice ZLX15</t>
+  </si>
+  <si>
+    <t>EletroVoice ELX200-12</t>
+  </si>
+  <si>
+    <t>Soundcraft ui24r</t>
+  </si>
+  <si>
+    <t>Impressora 3D Biqu B1</t>
+  </si>
+  <si>
+    <t>fonte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -111,12 +144,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -129,6 +156,17 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -168,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -176,9 +214,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -482,243 +522,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.25" customWidth="1"/>
-    <col min="2" max="2" width="8.75" customWidth="1"/>
-    <col min="3" max="3" width="6.875" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
-    <col min="8" max="8" width="8.75" customWidth="1"/>
-    <col min="9" max="9" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.25" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="8.75" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="11.875" customWidth="1"/>
+    <col min="9" max="9" width="10.75" customWidth="1"/>
     <col min="10" max="10" width="8.75" customWidth="1"/>
-    <col min="11" max="11" width="20.75" customWidth="1"/>
+    <col min="11" max="11" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.75" customWidth="1"/>
+    <col min="13" max="13" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="F2">
+      <c r="K2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="J3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="M3">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="F3">
+      <c r="C4" s="2"/>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="M4">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="2"/>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="F4">
+      <c r="K5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="J6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4">
+      <c r="M6">
         <v>3500</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
+    <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="F5">
+      <c r="K7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="E8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="H8">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="M8">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5">
+        <v>10</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="K9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="6">
-        <v>10</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="H10" s="5"/>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G16" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J10" s="4"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I13" s="6"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I16" s="6"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -802,8 +884,8 @@
     <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/busca.xlsx
+++ b/busca.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Web-scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB839EA-8409-45A4-AC66-376672D94D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{B7E04826-4310-7543-85A3-1566BE6D9D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10710" yWindow="0" windowWidth="25935" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Filtros busca" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>estado</t>
   </si>
@@ -116,13 +129,19 @@
   </si>
   <si>
     <t>fonte</t>
+  </si>
+  <si>
+    <t>Filhote de Maltês</t>
+  </si>
+  <si>
+    <t>filhote maltês,maltês</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -170,6 +189,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -203,10 +228,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -220,8 +246,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -525,27 +554,27 @@
   <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.33984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.48046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.25" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="4" width="8.75" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
-    <col min="9" max="9" width="10.75" customWidth="1"/>
-    <col min="10" max="10" width="8.75" customWidth="1"/>
-    <col min="11" max="11" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.75" customWidth="1"/>
-    <col min="13" max="13" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="11.765625" customWidth="1"/>
+    <col min="4" max="4" width="8.703125" customWidth="1"/>
+    <col min="5" max="5" width="6.86328125" customWidth="1"/>
+    <col min="6" max="6" width="12.37890625" customWidth="1"/>
+    <col min="7" max="7" width="12.01171875" customWidth="1"/>
+    <col min="8" max="8" width="11.890625" customWidth="1"/>
+    <col min="9" max="9" width="10.78515625" customWidth="1"/>
+    <col min="10" max="10" width="8.703125" customWidth="1"/>
+    <col min="11" max="11" width="20.10546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.703125" customWidth="1"/>
+    <col min="13" max="13" width="20.71484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -583,7 +612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -603,11 +632,8 @@
       <c r="K2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M2">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:13" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -634,7 +660,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -661,7 +687,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -688,7 +714,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -715,7 +741,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -742,7 +768,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -769,7 +795,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -789,105 +815,127 @@
       <c r="J9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="J10" s="4"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I13" s="6"/>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I16" s="6"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="K2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K9" r:id="rId3" xr:uid="{449D0DCA-3FB1-9948-B94F-76F916CBDA86}"/>
+    <hyperlink ref="K10" r:id="rId4" xr:uid="{C753E098-325E-0648-AD55-E5533142572A}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/busca.xlsx
+++ b/busca.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Web-scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{B7E04826-4310-7543-85A3-1566BE6D9D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{E58BF1E4-63C4-0A41-AB04-88135963C85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10710" yWindow="0" windowWidth="25935" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>estado</t>
   </si>
@@ -129,19 +129,13 @@
   </si>
   <si>
     <t>fonte</t>
-  </si>
-  <si>
-    <t>Filhote de Maltês</t>
-  </si>
-  <si>
-    <t>filhote maltês,maltês</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -157,11 +151,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <name val="Arial"/>
     </font>
@@ -230,24 +219,22 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -551,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:M99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -619,17 +606,17 @@
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="9"/>
       <c r="F2">
         <v>10</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -640,7 +627,7 @@
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="3"/>
@@ -650,10 +637,10 @@
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="M3">
@@ -677,10 +664,10 @@
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="M4">
@@ -704,10 +691,10 @@
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="M5">
@@ -731,10 +718,10 @@
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="M6">
@@ -758,10 +745,10 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="M7">
@@ -776,7 +763,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F8">
@@ -785,10 +772,10 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="M8">
@@ -799,55 +786,33 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="4"/>
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="5">
-        <v>10</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="F9" s="4">
+        <v>10</v>
+      </c>
+      <c r="H9" s="4">
         <v>1</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <v>15</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I13" s="6"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I16" s="6"/>
-    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I12" s="5"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I15" s="5"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -927,15 +892,13 @@
     <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="K2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="K9" r:id="rId3" xr:uid="{449D0DCA-3FB1-9948-B94F-76F916CBDA86}"/>
-    <hyperlink ref="K10" r:id="rId4" xr:uid="{C753E098-325E-0648-AD55-E5533142572A}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/busca.xlsx
+++ b/busca.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Web-scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{E58BF1E4-63C4-0A41-AB04-88135963C85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{CC004D4C-A428-7544-B345-D241F9157D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10710" yWindow="0" windowWidth="25935" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>estado</t>
   </si>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -606,7 +606,9 @@
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="F2">
         <v>10</v>
       </c>

--- a/busca.xlsx
+++ b/busca.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Web-scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{CC004D4C-A428-7544-B345-D241F9157D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{43E08149-1FD2-9F40-8EB6-E0C20BF7C58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10710" yWindow="0" windowWidth="25935" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>estado</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>fonte</t>
+  </si>
+  <si>
+    <t>Presonus HD9</t>
+  </si>
+  <si>
+    <t>HD9</t>
   </si>
 </sst>
 </file>
@@ -221,7 +227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -235,6 +241,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -540,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="B10" sqref="A10:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -805,6 +812,29 @@
         <v>11</v>
       </c>
       <c r="K9" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -899,8 +929,9 @@
     <hyperlink ref="K3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="K2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="K9" r:id="rId3" xr:uid="{449D0DCA-3FB1-9948-B94F-76F916CBDA86}"/>
+    <hyperlink ref="K10" r:id="rId4" xr:uid="{A83900DA-842C-B441-B927-C2656A825DFF}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>